--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2032733.589981711</v>
+        <v>-2034731.262994556</v>
       </c>
     </row>
     <row r="7">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>220.0356650488922</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>335.7145278167745</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>182.4825078252441</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>83.58354151325273</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>164.4528911842138</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,19 +896,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>186.8542261748346</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -944,10 +944,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>201.639505271942</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>174.9442930587126</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>1.769908071584571</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>184.7553585985638</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>356.7484355762231</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1184,7 +1184,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1291,28 +1291,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>60.38235645081242</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>67.06388118995304</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1427,7 +1427,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>76.31783716350003</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.7416953338426</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784682</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>181.7185273928933</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>75.06705067831074</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>32.33602639002971</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2053,19 +2053,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>104.0686291103734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2293,16 +2293,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>172.7067178467371</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C25" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D25" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E25" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F25" t="n">
-        <v>77.28915789329096</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G25" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H25" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I25" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463095</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S25" t="n">
         <v>129.7889198539626</v>
@@ -2533,16 +2533,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V25" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W25" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X25" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y25" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="26">
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898687</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E28" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373733</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2770,16 +2770,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V28" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W28" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X28" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857135</v>
       </c>
       <c r="E31" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
       </c>
       <c r="T31" t="n">
-        <v>153.4156709287489</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U31" t="n">
         <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="32">
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463133</v>
@@ -3518,10 +3518,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1731.411330760289</v>
+        <v>1040.216121848822</v>
       </c>
       <c r="C2" t="n">
-        <v>1362.448813819877</v>
+        <v>817.9578743246886</v>
       </c>
       <c r="D2" t="n">
-        <v>1004.183115213127</v>
+        <v>817.9578743246886</v>
       </c>
       <c r="E2" t="n">
-        <v>618.3948626148824</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>207.4089578252748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2302.336936304455</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W2" t="n">
-        <v>2302.336936304455</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X2" t="n">
-        <v>2302.336936304455</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="Y2" t="n">
-        <v>2118.011170824411</v>
+        <v>1426.815961912944</v>
       </c>
     </row>
     <row r="3">
@@ -4401,22 +4401,22 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2153.047432775375</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C4" t="n">
-        <v>2153.047432775375</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D4" t="n">
-        <v>2153.047432775375</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>2153.047432775375</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>2153.047432775375</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>2697.149091018222</v>
+        <v>532.5980335608502</v>
       </c>
       <c r="U4" t="n">
-        <v>2697.149091018222</v>
+        <v>532.5980335608502</v>
       </c>
       <c r="V4" t="n">
-        <v>2442.464602812336</v>
+        <v>532.5980335608502</v>
       </c>
       <c r="W4" t="n">
-        <v>2153.047432775375</v>
+        <v>532.5980335608502</v>
       </c>
       <c r="X4" t="n">
-        <v>2153.047432775375</v>
+        <v>532.5980335608502</v>
       </c>
       <c r="Y4" t="n">
-        <v>2153.047432775375</v>
+        <v>532.5980335608502</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1353.054351842972</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="C5" t="n">
-        <v>1164.312709242129</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E5" t="n">
         <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
         <v>381.1377017843616</v>
@@ -4565,10 +4565,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4577,7 +4577,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2092.422847177208</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>1739.654191907093</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>1739.654191907093</v>
+        <v>1578.435103297744</v>
       </c>
       <c r="Y5" t="n">
-        <v>1739.654191907093</v>
+        <v>1578.435103297744</v>
       </c>
     </row>
     <row r="6">
@@ -4644,19 +4644,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>551.4175770764215</v>
       </c>
       <c r="U7" t="n">
-        <v>224.6669506791649</v>
+        <v>551.4175770764215</v>
       </c>
       <c r="V7" t="n">
-        <v>222.8791647482714</v>
+        <v>551.4175770764215</v>
       </c>
       <c r="W7" t="n">
-        <v>222.8791647482714</v>
+        <v>551.4175770764215</v>
       </c>
       <c r="X7" t="n">
-        <v>222.8791647482714</v>
+        <v>551.4175770764215</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.8791647482714</v>
+        <v>551.4175770764215</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1336.435086552838</v>
+        <v>1504.400259589023</v>
       </c>
       <c r="C8" t="n">
-        <v>967.4725696124262</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D8" t="n">
-        <v>967.4725696124262</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>581.6843170141819</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4832,22 +4832,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>2113.174258592771</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X8" t="n">
-        <v>2113.174258592771</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="Y8" t="n">
-        <v>1723.03492661696</v>
+        <v>1504.400259589023</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.5356891811371</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>268.5356891811371</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>268.5356891811371</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>268.5356891811371</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,25 +5024,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5075,16 +5075,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5127,7 +5127,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
         <v>1558.376451307619</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.3586382081043</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="C13" t="n">
-        <v>324.4224552801974</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="D13" t="n">
-        <v>174.3058158678616</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E13" t="n">
-        <v>174.3058158678616</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>174.3058158678616</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>174.3058158678616</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>675.007103038344</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W13" t="n">
-        <v>675.007103038344</v>
+        <v>726.2901516528284</v>
       </c>
       <c r="X13" t="n">
-        <v>675.007103038344</v>
+        <v>726.2901516528284</v>
       </c>
       <c r="Y13" t="n">
-        <v>675.007103038344</v>
+        <v>726.2901516528284</v>
       </c>
     </row>
     <row r="14">
@@ -5261,25 +5261,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5303,19 +5303,19 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590536</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5461,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1204.287099046098</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>915.1584602596563</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324571</v>
+        <v>915.1584602596563</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954965</v>
+        <v>625.7412902226956</v>
       </c>
       <c r="X16" t="n">
-        <v>130.9054447954965</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>397.7517393246783</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,25 +5498,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5558,7 +5558,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5601,7 +5601,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>173.0423951757512</v>
+        <v>446.7290208898078</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>277.7928379619009</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>277.7928379619009</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>129.8797443795078</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5701,22 +5701,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>898.7925182488384</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V19" t="n">
-        <v>644.1080300429516</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W19" t="n">
-        <v>354.6908600059909</v>
+        <v>674.7185717878251</v>
       </c>
       <c r="X19" t="n">
-        <v>354.6908600059909</v>
+        <v>446.7290208898078</v>
       </c>
       <c r="Y19" t="n">
-        <v>354.6908600059909</v>
+        <v>446.7290208898078</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,25 +5735,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5795,7 +5795,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5817,13 +5817,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5832,25 +5832,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
         <v>97.21709146028584</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1393.796443173687</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1193.876433089239</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1193.876433089239</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>1193.876433089239</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>939.1919448833521</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>649.7747748463914</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>649.7747748463914</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>428.9821957028613</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5966,28 +5966,28 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805475</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822467</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
@@ -5999,34 +5999,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C25" t="n">
-        <v>559.3441472229675</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D25" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E25" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F25" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G25" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H25" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
         <v>177.05035515254</v>
@@ -6181,16 +6181,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V25" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W25" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X25" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y25" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6239,22 +6239,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6291,13 +6291,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6306,19 +6306,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G28" t="n">
         <v>221.5295092103129</v>
@@ -6418,16 +6418,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V28" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W28" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6461,28 +6461,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G31" t="n">
         <v>221.5295092103129</v>
@@ -6661,10 +6661,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6707,28 +6707,28 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6765,13 +6765,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6780,25 +6780,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108325</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229666</v>
       </c>
       <c r="D34" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6859,10 +6859,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,10 +6877,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010311</v>
       </c>
     </row>
     <row r="35">
@@ -6914,28 +6914,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514085</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7017,19 +7017,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>570.0299571250968</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>816.7950850315608</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1124.115218311523</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1453.977845975555</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108324</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254955</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649686</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
         <v>1688.186490350129</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,10 +7160,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,19 +7172,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E40" t="n">
         <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7388,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7497,7 +7497,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108319</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229661</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506714</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504505</v>
@@ -7567,13 +7567,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045196</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010305</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="44">
@@ -7634,49 +7634,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7734,7 +7734,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7795,7 +7795,7 @@
         <v>320.8847398504508</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142014</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>253.7371603504743</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9179,7 +9179,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>159.0121003135239</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22547,10 +22547,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>145.2372267221154</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,7 +22559,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>124.4504607478737</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>203.7554308308095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22717,7 +22717,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>83.72626074579819</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22726,7 +22726,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22756,16 +22756,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>60.58221427387045</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>72.5959912040361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>5.781303002748416</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23656,7 +23656,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,25 +23701,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>39.8290336654959</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>185.2331835502362</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>92.1797704203171</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>113.0850216329015</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23941,19 +23941,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>5.89572329341938</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,16 +24181,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>79.43092547709088</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36783.84869564045</v>
+        <v>36783.84869564044</v>
       </c>
       <c r="C2" t="n">
         <v>41052.08849321416</v>
       </c>
       <c r="D2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321417</v>
       </c>
       <c r="E2" t="n">
         <v>39102.90597377087</v>
       </c>
       <c r="F2" t="n">
-        <v>39102.9059737709</v>
+        <v>39102.90597377087</v>
       </c>
       <c r="G2" t="n">
-        <v>39102.90597377087</v>
+        <v>39102.90597377088</v>
       </c>
       <c r="H2" t="n">
-        <v>39102.90597377086</v>
+        <v>39102.90597377089</v>
       </c>
       <c r="I2" t="n">
+        <v>41052.08849321416</v>
+      </c>
+      <c r="J2" t="n">
         <v>41052.08849321423</v>
       </c>
-      <c r="J2" t="n">
-        <v>41052.08849321424</v>
-      </c>
       <c r="K2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321426</v>
       </c>
       <c r="L2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.08849321421</v>
       </c>
       <c r="M2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="N2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.08849321415</v>
       </c>
       <c r="O2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="P2" t="n">
-        <v>41052.0884932142</v>
+        <v>41052.08849321419</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.51210371264</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.51210371251</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26427,37 +26427,37 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
+        <v>15045.66962143914</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15045.66962143912</v>
+      </c>
+      <c r="H4" t="n">
         <v>15045.6696214391</v>
       </c>
-      <c r="G4" t="n">
-        <v>15045.6696214391</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15045.66962143912</v>
-      </c>
       <c r="I4" t="n">
+        <v>37464.45686275951</v>
+      </c>
+      <c r="J4" t="n">
+        <v>37464.45686275957</v>
+      </c>
+      <c r="K4" t="n">
+        <v>37464.45686275957</v>
+      </c>
+      <c r="L4" t="n">
+        <v>37464.45686275957</v>
+      </c>
+      <c r="M4" t="n">
         <v>37464.45686275959</v>
       </c>
-      <c r="J4" t="n">
+      <c r="N4" t="n">
         <v>37464.45686275959</v>
       </c>
-      <c r="K4" t="n">
+      <c r="O4" t="n">
         <v>37464.45686275959</v>
       </c>
-      <c r="L4" t="n">
-        <v>37464.45686275959</v>
-      </c>
-      <c r="M4" t="n">
-        <v>37464.45686275957</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>37464.45686275958</v>
-      </c>
-      <c r="O4" t="n">
-        <v>37464.45686275957</v>
-      </c>
-      <c r="P4" t="n">
-        <v>37464.45686275957</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26476,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002542</v>
       </c>
       <c r="J5" t="n">
         <v>97715.10582002539</v>
@@ -26506,10 +26506,10 @@
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-744094.6518918384</v>
+        <v>-744308.0638817169</v>
       </c>
       <c r="C6" t="n">
         <v>-198581.9478214179</v>
@@ -26528,28 +26528,28 @@
         <v>-198581.9478214179</v>
       </c>
       <c r="E6" t="n">
-        <v>-593090.1260732809</v>
+        <v>-593187.5851992531</v>
       </c>
       <c r="F6" t="n">
-        <v>-67930.08959638482</v>
+        <v>-68027.54872235705</v>
       </c>
       <c r="G6" t="n">
-        <v>-67930.08959638486</v>
+        <v>-68027.54872235702</v>
       </c>
       <c r="H6" t="n">
-        <v>-67930.0895963849</v>
+        <v>-68027.54872235701</v>
       </c>
       <c r="I6" t="n">
-        <v>-148632.9862932833</v>
+        <v>-148632.9862932834</v>
       </c>
       <c r="J6" t="n">
         <v>-270550.6933821636</v>
       </c>
       <c r="K6" t="n">
-        <v>-94127.47418957081</v>
+        <v>-94127.4741895707</v>
       </c>
       <c r="L6" t="n">
-        <v>-94127.47418957078</v>
+        <v>-94127.47418957074</v>
       </c>
       <c r="M6" t="n">
         <v>-228928.4894234079</v>
@@ -26558,10 +26558,10 @@
         <v>-148632.9862932833</v>
       </c>
       <c r="O6" t="n">
-        <v>-94127.47418957077</v>
+        <v>-94127.47418957081</v>
       </c>
       <c r="P6" t="n">
-        <v>-94127.47418957076</v>
+        <v>-94127.4741895708</v>
       </c>
     </row>
   </sheetData>
@@ -26704,25 +26704,25 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="J2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="K2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="L2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="M2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="J2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="K2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="L2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964065</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,40 +26744,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26808,7 +26808,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>46.2158422554873</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>289.3337092729213</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27616,19 +27616,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>178.4186655961729</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>168.091595406527</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27822,16 +27822,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>50.09081239937169</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>250.3677352522434</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>180.5175331724437</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>50.12761016548836</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>85.03869157211884</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>219.459117146638</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,16 +35495,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
@@ -35741,10 +35741,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>460.8305752819989</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35899,13 +35899,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q17" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,16 +35969,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,13 +36200,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36215,13 +36215,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,13 +36452,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K25" t="n">
         <v>219.8343186595512</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36689,7 +36689,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37324,10 +37324,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>309.5875389014632</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,16 +37780,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38032,13 +38032,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,10 +38184,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
